--- a/UnitTests/Tests/Quotes.xlsx
+++ b/UnitTests/Tests/Quotes.xlsx
@@ -550,7 +550,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D25" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D25" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4" t="b">
@@ -591,7 +591,7 @@
       </c>
       <c r="F5" t="str">
         <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00009#0000</v>
+        <v>obj_0008b#0000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>IF(B6=C6,"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E6">
@@ -611,7 +611,7 @@
       </c>
       <c r="F6" t="str">
         <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00005#0000</v>
+        <v>obj_00083#0000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
       </c>
       <c r="F7" t="str">
         <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00000#0000</v>
+        <v>obj_00090#0000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
       </c>
       <c r="H12" t="str">
         <f>_xll.qlIborIndex(,"euribor","1y",2,"eur","target","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00084#0000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
       </c>
       <c r="H14" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1y",2,"eur","target","1y","Modified Following","Actual/360",H12)</f>
-        <v>obj_00007#0000</v>
+        <v>obj_00088#0000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,16 +884,16 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D24" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" t="e">
+      <c r="B24">
+        <v>42644</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E24">
         <f>_xll.qlLastFixingQuoteReferenceDate(E23)</f>
-        <v>#NUM!</v>
+        <v>42644</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/UnitTests/Tests/Quotes.xlsx
+++ b/UnitTests/Tests/Quotes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Function</t>
   </si>
@@ -112,33 +112,6 @@
   </si>
   <si>
     <t>qlRelinkableHandleQuote</t>
-  </si>
-  <si>
-    <t>quote01#0000</t>
-  </si>
-  <si>
-    <t>quote02#0000</t>
-  </si>
-  <si>
-    <t>quote03#0000</t>
-  </si>
-  <si>
-    <t>quote04#0000</t>
-  </si>
-  <si>
-    <t>quote05#0000</t>
-  </si>
-  <si>
-    <t>quote06#0000</t>
-  </si>
-  <si>
-    <t>quote07#0000</t>
-  </si>
-  <si>
-    <t>quote08#0000</t>
-  </si>
-  <si>
-    <t>quote09#0000</t>
   </si>
 </sst>
 </file>
@@ -554,7 +527,7 @@
         <v>FAIL</v>
       </c>
       <c r="E3">
-        <f>_xll.qlQuoteValue(E12)</f>
+        <f>_xll.qlQuoteValue(F12)</f>
         <v>123</v>
       </c>
     </row>
@@ -570,7 +543,7 @@
         <v>FAIL</v>
       </c>
       <c r="E4" t="b">
-        <f>_xll.qlQuoteIsValid(E12)</f>
+        <f>_xll.qlQuoteIsValid(F12)</f>
         <v>1</v>
       </c>
     </row>
@@ -591,7 +564,7 @@
       </c>
       <c r="F5" t="str">
         <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_0008b#0000</v>
+        <v>obj_00009#0002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,7 +584,7 @@
       </c>
       <c r="F6" t="str">
         <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00083#0000</v>
+        <v>obj_00008#0002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,7 +604,7 @@
       </c>
       <c r="F7" t="str">
         <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00090#0000</v>
+        <v>obj_00007#0002</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -646,7 +619,7 @@
         <v>FAIL</v>
       </c>
       <c r="E8">
-        <f>_xll.qlSimpleQuoteTickValue(E12)</f>
+        <f>_xll.qlSimpleQuoteTickValue(F12)</f>
         <v>456</v>
       </c>
     </row>
@@ -681,36 +654,44 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
+      <c r="B12" t="b">
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xll.qlSimpleQuote("quote01",123,456)</f>
-        <v>quote01#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="b">
+        <f>ISERROR(F12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xll.qlSimpleQuote(,123,456)</f>
+        <v>obj_00003#0003</v>
       </c>
       <c r="H12" t="str">
         <f>_xll.qlIborIndex(,"euribor","1y",2,"eur","target","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_00084#0000</v>
+        <v>obj_00000#0002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="B13" t="b">
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xll.qlForwardValueQuote("quote02",H12,H13)</f>
-        <v>quote02#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" ref="E13:E18" si="1">ISERROR(F13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>_xll.qlForwardValueQuote(,H12,H13)</f>
+        <v>obj_0000d#0003</v>
       </c>
       <c r="H13" s="4">
         <v>25569</v>
@@ -720,87 +701,107 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
+      <c r="B14" t="b">
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E14" t="str">
-        <f>_xll.qlForwardSwapQuote("quote03",H14,123,"1y")</f>
-        <v>quote03#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f>_xll.qlForwardSwapQuote(,H14,123,"1y")</f>
+        <v>obj_0000c#0003</v>
       </c>
       <c r="H14" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1y",2,"eur","target","1y","Modified Following","Actual/360",H12)</f>
-        <v>obj_00088#0000</v>
+        <v>obj_0000a#0002</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
+      <c r="B15" t="b">
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E15" t="str">
-        <f>_xll.qlImpliedStdDevQuote("quote04","Call",123,456,789)</f>
-        <v>quote04#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f>_xll.qlImpliedStdDevQuote(,"Call",123,456,789)</f>
+        <v>obj_00004#0003</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
+      <c r="B16" t="b">
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E16" t="str">
-        <f>_xll.qlEurodollarFuturesImpliedStdDevQuote("quote05",123,456,F6,123)</f>
-        <v>quote05#0000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <f>_xll.qlEurodollarFuturesImpliedStdDevQuote(,123,456,F6,123)</f>
+        <v>obj_0000b#0003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="B17" t="b">
+        <v>0</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E17" t="str">
-        <f>_xll.qlCompositeQuote("quote06",1,2,"+")</f>
-        <v>quote06#0000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f>_xll.qlCompositeQuote(,1,2,"+")</f>
+        <v>obj_00002#0003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
+      <c r="B18" t="b">
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E18" t="str">
-        <f>_xll.qlFuturesConvAdjustmentQuote("quote07",H12,"H9",123,456,789)</f>
-        <v>quote07#0000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f>_xll.qlFuturesConvAdjustmentQuote(,H12,"H9",123,456,789)</f>
+        <v>obj_00006#0003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -812,11 +813,11 @@
         <v>FAIL</v>
       </c>
       <c r="E19">
-        <f>_xll.qlFuturesConvAdjustmentQuoteVolatility(E18)</f>
+        <f>_xll.qlFuturesConvAdjustmentQuoteVolatility(F18)</f>
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -828,11 +829,11 @@
         <v>FAIL</v>
       </c>
       <c r="E20">
-        <f>_xll.qlFuturesConvAdjustmentQuoteMeanReversion(E18)</f>
+        <f>_xll.qlFuturesConvAdjustmentQuoteMeanReversion(F18)</f>
         <v>789</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -844,11 +845,11 @@
         <v>FAIL</v>
       </c>
       <c r="E21">
-        <f>_xll.qlFuturesConvAdjustmentQuoteImmDate(E18)</f>
+        <f>_xll.qlFuturesConvAdjustmentQuoteImmDate(F18)</f>
         <v>43544</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -860,56 +861,64 @@
         <v>FAIL</v>
       </c>
       <c r="E22">
-        <f>_xll.qlFuturesConvAdjustmentQuoteFuturesValue(E18)</f>
+        <f>_xll.qlFuturesConvAdjustmentQuoteFuturesValue(F18)</f>
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
+      <c r="B23" t="b">
+        <v>0</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E23" t="str">
-        <f>_xll.qlLastFixingQuote("quote08",H12)</f>
-        <v>quote08#0000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" ref="E23" si="2">ISERROR(F23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f>_xll.qlLastFixingQuote(,H12)</f>
+        <v>obj_00001#0003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>42644</v>
+      <c r="B24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E24">
-        <f>_xll.qlLastFixingQuoteReferenceDate(E23)</f>
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>ERROR</v>
+      </c>
+      <c r="E24" t="e">
+        <f>_xll.qlLastFixingQuoteReferenceDate(F23)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
+      <c r="B25" t="b">
+        <v>0</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E25" t="str">
-        <f>_xll.qlRelinkableHandleQuote("quote09")</f>
-        <v>quote09#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" ref="E25" si="3">ISERROR(F25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>_xll.qlRelinkableHandleQuote()</f>
+        <v>obj_00005#0003</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/Quotes.xlsx
+++ b/UnitTests/Tests/Quotes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$25</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,12 +180,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -222,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +263,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,13 +507,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -526,9 +568,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlQuoteValue(F12)</f>
-        <v>123</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlQuoteValue(F12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -542,9 +584,9 @@
         <f t="shared" ref="D4:D25" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4" t="b">
-        <f>_xll.qlQuoteIsValid(F12)</f>
-        <v>1</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlQuoteIsValid(F12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -558,13 +600,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5" t="b">
-        <f>_xll.qlSimpleQuoteReset(F5)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00009#0002</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlSimpleQuoteReset(F5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <f ca="1">_xll.qlSimpleQuote(,123)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -578,13 +620,13 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlSimpleQuoteSetValue(F6,123)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00008#0002</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetValue(F6,123)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" t="e">
+        <f ca="1">_xll.qlSimpleQuote(,123)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,13 +640,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" t="b">
-        <f>_xll.qlSimpleQuoteSetTickValue(F7,123)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xll.qlSimpleQuote(,123)</f>
-        <v>obj_00007#0002</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlSimpleQuoteSetTickValue(F7,123)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <f ca="1">_xll.qlSimpleQuote(,123)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -618,9 +660,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlSimpleQuoteTickValue(F12)</f>
-        <v>456</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlSimpleQuoteTickValue(F12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,16 +704,16 @@
         <v>PASS</v>
       </c>
       <c r="E12" t="b">
-        <f>ISERROR(F12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xll.qlSimpleQuote(,123,456)</f>
-        <v>obj_00003#0003</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1y",2,"eur","target","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_00000#0002</v>
+        <f ca="1">ISERROR(F12)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="e">
+        <f ca="1">_xll.qlSimpleQuote(,123,456)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1y",2,"eur","target","Modified Following",TRUE,"Actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -686,12 +728,12 @@
         <v>PASS</v>
       </c>
       <c r="E13" t="b">
-        <f t="shared" ref="E13:E18" si="1">ISERROR(F13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" t="str">
-        <f>_xll.qlForwardValueQuote(,H12,H13)</f>
-        <v>obj_0000d#0003</v>
+        <f t="shared" ref="E13:E18" ca="1" si="1">ISERROR(F13)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="e">
+        <f ca="1">_xll.qlForwardValueQuote(,H12,H13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H13" s="4">
         <v>25569</v>
@@ -709,16 +751,16 @@
         <v>PASS</v>
       </c>
       <c r="E14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" t="str">
-        <f>_xll.qlForwardSwapQuote(,H14,123,"1y")</f>
-        <v>obj_0000c#0003</v>
-      </c>
-      <c r="H14" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1y",2,"eur","target","1y","Modified Following","Actual/360",H12)</f>
-        <v>obj_0000a#0002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="e">
+        <f ca="1">_xll.qlForwardSwapQuote(,H14,123,"1y")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1y",2,"eur","target","1y","Modified Following","Actual/360",H12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,12 +775,12 @@
         <v>PASS</v>
       </c>
       <c r="E15" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" t="str">
-        <f>_xll.qlImpliedStdDevQuote(,"Call",123,456,789)</f>
-        <v>obj_00004#0003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" t="e">
+        <f ca="1">_xll.qlImpliedStdDevQuote(,"Call",123,456,789)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,12 +795,12 @@
         <v>PASS</v>
       </c>
       <c r="E16" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" t="str">
-        <f>_xll.qlEurodollarFuturesImpliedStdDevQuote(,123,456,F6,123)</f>
-        <v>obj_0000b#0003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="e">
+        <f ca="1">_xll.qlEurodollarFuturesImpliedStdDevQuote(,123,456,F6,123)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,12 +815,12 @@
         <v>PASS</v>
       </c>
       <c r="E17" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" t="str">
-        <f>_xll.qlCompositeQuote(,1,2,"+")</f>
-        <v>obj_00002#0003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="e">
+        <f ca="1">_xll.qlCompositeQuote(,1,2,"+")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,12 +835,12 @@
         <v>PASS</v>
       </c>
       <c r="E18" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" t="str">
-        <f>_xll.qlFuturesConvAdjustmentQuote(,H12,"H9",123,456,789)</f>
-        <v>obj_00006#0003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="e">
+        <f ca="1">_xll.qlFuturesConvAdjustmentQuote(,H12,"H9",123,456,789)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,9 +854,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E19">
-        <f>_xll.qlFuturesConvAdjustmentQuoteVolatility(F18)</f>
-        <v>456</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlFuturesConvAdjustmentQuoteVolatility(F18)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,9 +870,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20">
-        <f>_xll.qlFuturesConvAdjustmentQuoteMeanReversion(F18)</f>
-        <v>789</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlFuturesConvAdjustmentQuoteMeanReversion(F18)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,9 +886,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E21">
-        <f>_xll.qlFuturesConvAdjustmentQuoteImmDate(F18)</f>
-        <v>43544</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlFuturesConvAdjustmentQuoteImmDate(F18)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,9 +902,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22">
-        <f>_xll.qlFuturesConvAdjustmentQuoteFuturesValue(F18)</f>
-        <v>123</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlFuturesConvAdjustmentQuoteFuturesValue(F18)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,12 +919,12 @@
         <v>PASS</v>
       </c>
       <c r="E23" t="b">
-        <f t="shared" ref="E23" si="2">ISERROR(F23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
-        <f>_xll.qlLastFixingQuote(,H12)</f>
-        <v>obj_00001#0003</v>
+        <f t="shared" ref="E23" ca="1" si="2">ISERROR(F23)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" t="e">
+        <f ca="1">_xll.qlLastFixingQuote(,H12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,8 +939,8 @@
         <v>ERROR</v>
       </c>
       <c r="E24" t="e">
-        <f>_xll.qlLastFixingQuoteReferenceDate(F23)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlLastFixingQuoteReferenceDate(F23)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,12 +955,12 @@
         <v>PASS</v>
       </c>
       <c r="E25" t="b">
-        <f t="shared" ref="E25" si="3">ISERROR(F25)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
-        <f>_xll.qlRelinkableHandleQuote()</f>
-        <v>obj_00005#0003</v>
+        <f t="shared" ref="E25" ca="1" si="3">ISERROR(F25)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="e">
+        <f ca="1">_xll.qlRelinkableHandleQuote()</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -928,26 +970,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
